--- a/biology/Zoologie/Caponina_notabilis/Caponina_notabilis.xlsx
+++ b/biology/Zoologie/Caponina_notabilis/Caponina_notabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caponina notabilis est une espèce d'araignées aranéomorphes de la famille des Caponiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caponina notabilis est une espèce d'araignées aranéomorphes de la famille des Caponiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 au Brésil au Paraná, au Santa Catarina et au Rio Grande do Sul ;
 en Uruguay ;
 en Argentine dans les provinces du Chaco, de Cordoba et de Buenos Aires.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caponina notabilis compte six yeux. Le mâle décrit par Platnick en 1994 mesure 3,71 mm et la femelle 4,39 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caponina notabilis compte six yeux. Le mâle décrit par Platnick en 1994 mesure 3,71 mm et la femelle 4,39 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1939 : Les arachnides et la zoogéographie de l'Argentine. Physis Buenos Aires, vol. 17, p. 601-630.</t>
         </is>
